--- a/data/trans_camb/P07_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P07_R-Habitat-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.133235508974217</v>
+        <v>-3.380854678897439</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.783866975536563</v>
+        <v>-4.541506982962281</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.19955453502359</v>
+        <v>1.002916132479039</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-7.450213028243515</v>
+        <v>-7.141923374133445</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-7.53663356615388</v>
+        <v>-7.229577338261069</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-7.077056953530576</v>
+        <v>-7.100203900218727</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-4.138131187158675</v>
+        <v>-3.832255335063681</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-4.901788664725544</v>
+        <v>-4.847562210068668</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.732532293058304</v>
+        <v>-1.654904778232357</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.883562163851521</v>
+        <v>4.751397148756677</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.523505851390053</v>
+        <v>3.643200850123104</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.613482045711018</v>
+        <v>9.527881542508618</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.628545521521634</v>
+        <v>2.2454145353384</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.326749201592951</v>
+        <v>2.681152507805753</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.333680909858275</v>
+        <v>1.548522503298385</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.260293598603099</v>
+        <v>2.487676907006374</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.625567330907522</v>
+        <v>1.190341269869897</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.158670652265213</v>
+        <v>4.084247071985512</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1661218405013883</v>
+        <v>-0.1790971991388572</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2516676062138238</v>
+        <v>-0.2374136079622828</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.05962261468106317</v>
+        <v>0.04924852283397587</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2267011127672203</v>
+        <v>-0.2276066824575917</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2369309687094538</v>
+        <v>-0.2290852294423738</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.218206982105076</v>
+        <v>-0.2166819437860784</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1652879354547065</v>
+        <v>-0.1520448604571838</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.196384422322493</v>
+        <v>-0.2037435266760346</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.06831092167450821</v>
+        <v>-0.06404252135402155</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3300776412726256</v>
+        <v>0.322756849571932</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.237274275424484</v>
+        <v>0.2409665584683305</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6358829326778028</v>
+        <v>0.6212887371982397</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.09762860972301221</v>
+        <v>0.08104700367934131</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.08340382280836588</v>
+        <v>0.09820436222772684</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05036468794232649</v>
+        <v>0.05623730877583959</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09976281713571743</v>
+        <v>0.1199787735493269</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.07397524068729304</v>
+        <v>0.05291847438481378</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.1924866551192707</v>
+        <v>0.1834114408888336</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>-3.797022408945697</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-4.009810234004282</v>
+        <v>-4.009810234004285</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.335129714737399</v>
+        <v>-1.331619856690489</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.503135892561583</v>
+        <v>-3.066541111358424</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.218038140568328</v>
+        <v>-4.274188188899745</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-8.593912658558594</v>
+        <v>-8.300959548683151</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-11.71164524050275</v>
+        <v>-11.28588708072644</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-10.97138881605106</v>
+        <v>-10.87349718854932</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.929828153175154</v>
+        <v>-3.75522167382631</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-6.495672362584881</v>
+        <v>-6.436592514774738</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-6.481559238064801</v>
+        <v>-6.759885603981338</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.514068707904726</v>
+        <v>5.352568019186212</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.143378233464013</v>
+        <v>3.463188846698889</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.141757226227977</v>
+        <v>2.118579794781051</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.4081789082557595</v>
+        <v>-0.3624506176688684</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-3.795154981205013</v>
+        <v>-3.609785790984741</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-3.132661813922315</v>
+        <v>-3.1655067889938</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.49422757554738</v>
+        <v>1.436643016383338</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-1.068246688552403</v>
+        <v>-1.181552897118302</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-1.507213575587573</v>
+        <v>-1.592352758840963</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.160485612201209</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.1694793395737512</v>
+        <v>-0.1694793395737513</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.0784667930187142</v>
+        <v>-0.07388414258824451</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1972625494429341</v>
+        <v>-0.1809304565161588</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2464764573587317</v>
+        <v>-0.2537536772977031</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2522547669081373</v>
+        <v>-0.2449946407611574</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3471110847862273</v>
+        <v>-0.3346397055322222</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.320863972514666</v>
+        <v>-0.3201638779333586</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1591540550819371</v>
+        <v>-0.1512317695646053</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2584821403648844</v>
+        <v>-0.2587193180647885</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2556685334433909</v>
+        <v>-0.2691788774536101</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3994075549257612</v>
+        <v>0.3837642308973149</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2314828365812165</v>
+        <v>0.251689586944713</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1570388299904267</v>
+        <v>0.1514583244963092</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.01435578745107587</v>
+        <v>-0.01226853776331445</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1241456324268989</v>
+        <v>-0.1190333737305307</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.1071806728141219</v>
+        <v>-0.1089412432151252</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0645129439104864</v>
+        <v>0.06333591209039144</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.04675458016322338</v>
+        <v>-0.05476391217465092</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.06600297729065609</v>
+        <v>-0.07095087022487043</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-4.304991848346051</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-5.53327042454668</v>
+        <v>-5.533270424546677</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.9569288978884705</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.616125353156384</v>
+        <v>-3.392132508342987</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.109494708261878</v>
+        <v>-3.912792564027638</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-4.798074900527411</v>
+        <v>-4.823923207471952</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.294805622172035</v>
+        <v>-3.13463832365933</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-8.815217063351762</v>
+        <v>-8.806252611487411</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-9.505943952487529</v>
+        <v>-9.422472622762651</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.221088327434096</v>
+        <v>-2.400278933911712</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-5.345921891985225</v>
+        <v>-5.480737842923135</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-6.317032342311353</v>
+        <v>-6.226951646036748</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.512744292598065</v>
+        <v>4.540215131745978</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.735850097636161</v>
+        <v>3.941280895391023</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.000169450166675</v>
+        <v>3.08735929010315</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.237996738048887</v>
+        <v>6.311269771614174</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.05651492701931107</v>
+        <v>0.3422601083683849</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-1.309574832456137</v>
+        <v>-1.269520278244736</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.906680844394004</v>
+        <v>3.981226004880251</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.8551915049885869</v>
+        <v>0.8406969973616618</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-0.4344519770860852</v>
+        <v>-0.321065440395345</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.1634514778883894</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.2100866297332812</v>
+        <v>-0.2100866297332811</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.04527972188272447</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1991878923779413</v>
+        <v>-0.1934125677020696</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.23414845367032</v>
+        <v>-0.2252171294536371</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2740689846828927</v>
+        <v>-0.2724378346300349</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1142804791875257</v>
+        <v>-0.1082813856178176</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3053732504434403</v>
+        <v>-0.3113555537435292</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3307315789638607</v>
+        <v>-0.3255978816015669</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.09706886353948924</v>
+        <v>-0.1054774968029552</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2367921204530333</v>
+        <v>-0.2367555525717935</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.271706491539544</v>
+        <v>-0.2734891721672358</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3234338473179026</v>
+        <v>0.3324283478769338</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2693192295063404</v>
+        <v>0.2724272375707387</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.2241326025869043</v>
+        <v>0.239851348440377</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2525843223116103</v>
+        <v>0.2666990308259036</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.003125391551922128</v>
+        <v>0.01400799470977554</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.05536197444352124</v>
+        <v>-0.05142651631312139</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2037799493870439</v>
+        <v>0.2077998158316352</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.04224183956652618</v>
+        <v>0.04744785283738985</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.02428805435209234</v>
+        <v>-0.01608878021831598</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>-1.476813739012259</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>1.231590091303941</v>
+        <v>1.231590091303938</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.840023026401649</v>
+        <v>-2.851367973728717</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.682626109642674</v>
+        <v>-2.800844459214373</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.764301324034417</v>
+        <v>1.022071891389241</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.471391165266187</v>
+        <v>-5.48427320822623</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-7.268184376866498</v>
+        <v>-7.188200278400545</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-5.534947337749225</v>
+        <v>-5.128187036311693</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-3.424197126527185</v>
+        <v>-3.127869820523408</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-4.199006965230236</v>
+        <v>-4.260295573580557</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.236512224425033</v>
+        <v>-0.9618940734794692</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.828761166657377</v>
+        <v>3.748097209840747</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.543257239958816</v>
+        <v>3.668728278669358</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.313641211860157</v>
+        <v>7.645686821197605</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.907263292425816</v>
+        <v>2.098326682554529</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2211906236230597</v>
+        <v>0.3120050296883756</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.847529840805007</v>
+        <v>1.919101215541616</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.755804107959538</v>
+        <v>1.890065540794945</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.1480569391774</v>
+        <v>1.180619561998439</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.650354652831653</v>
+        <v>3.65355205121746</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>-0.0712529765721064</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.05942148126331162</v>
+        <v>0.05942148126331148</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1743448784747469</v>
+        <v>-0.1759777486812559</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1734311233995542</v>
+        <v>-0.1719264700099206</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.04638090518106362</v>
+        <v>0.0604107334204901</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1979733089132118</v>
+        <v>-0.1952343114435641</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2579232628425612</v>
+        <v>-0.2562475449685946</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1888497160689845</v>
+        <v>-0.1736744961387978</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.156436938212843</v>
+        <v>-0.1446163500239786</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1906004833835643</v>
+        <v>-0.1931139072809233</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.05672851878690766</v>
+        <v>-0.04371883793532435</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2963038315636652</v>
+        <v>0.2882754537937979</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2638667403558206</v>
+        <v>0.2876352505768348</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.5747805472238998</v>
+        <v>0.6111290008923458</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.07683842284421954</v>
+        <v>0.08274823552589677</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.009326422403809088</v>
+        <v>0.0204116805046349</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.0765617438688853</v>
+        <v>0.07917324071186868</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.09155107139593019</v>
+        <v>0.09859455767863187</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.05757211796908168</v>
+        <v>0.06113895159185085</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.1864845578546914</v>
+        <v>0.1861803009799913</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>0.05175881405700411</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1.709823680084818</v>
+        <v>1.709823680084821</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-1.94945828000937</v>
@@ -1511,7 +1511,7 @@
         <v>-4.759394366035183</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-4.319545488270346</v>
+        <v>-4.31954548827034</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-0.4673789251125937</v>
@@ -1520,7 +1520,7 @@
         <v>-2.366646810336712</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-1.308629538023842</v>
+        <v>-1.308629538023845</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.7166099978352141</v>
+        <v>-0.7569430966741737</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.718929588290972</v>
+        <v>-1.701230864888199</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.03072603210291849</v>
+        <v>-0.1350198463315169</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.966693163806983</v>
+        <v>-4.059595905892801</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-7.011605010673039</v>
+        <v>-7.007614960144497</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-6.441635638579809</v>
+        <v>-6.219359263563091</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.981579169836898</v>
+        <v>-1.776003149254001</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-3.88859790350985</v>
+        <v>-3.764027985446768</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-2.665229559971242</v>
+        <v>-2.716932707653914</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.869942251608871</v>
+        <v>2.947186857841736</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.857358421103161</v>
+        <v>1.750774893379327</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.595022482757685</v>
+        <v>3.447127029763113</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.4673868083883884</v>
+        <v>0.2695084010165609</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-2.605083071449403</v>
+        <v>-2.796015866045443</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-2.368337736629536</v>
+        <v>-2.39180818561983</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.9778773219415646</v>
+        <v>1.104235459713677</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.9952226023618015</v>
+        <v>-0.9175618182152161</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.04454520230127276</v>
+        <v>0.055339649673299</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.003308574649746111</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.1092969262633</v>
+        <v>0.1092969262633002</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.0680739831972471</v>
@@ -1616,7 +1616,7 @@
         <v>-0.1661953658741516</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.1508360912380473</v>
+        <v>-0.1508360912380471</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.02101347187693403</v>
@@ -1625,7 +1625,7 @@
         <v>-0.1064050249584223</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.05883630715262692</v>
+        <v>-0.05883630715262704</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.04424857666711463</v>
+        <v>-0.04500096255539451</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1030303025093982</v>
+        <v>-0.1029888445587405</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.002599777736817063</v>
+        <v>-0.008096759263338225</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1325681044840304</v>
+        <v>-0.1351579000020267</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2347904428554431</v>
+        <v>-0.2345399933232841</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2137711437271227</v>
+        <v>-0.207279850458578</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.08567614247988227</v>
+        <v>-0.07885019087610064</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.173124130945354</v>
+        <v>-0.1639364049203207</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1150684048279162</v>
+        <v>-0.1173795881579093</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1942572455564809</v>
+        <v>0.2062938820766035</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1226192205833177</v>
+        <v>0.1185684776671119</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.2461334912127106</v>
+        <v>0.2283832069371265</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.01813682811163293</v>
+        <v>0.01096504875067406</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.09447715357387318</v>
+        <v>-0.1009887058541381</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.08672788235093337</v>
+        <v>-0.08826855757036842</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.04568061670740566</v>
+        <v>0.05166412540188241</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.04963646865434283</v>
+        <v>-0.04301552353365189</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.002119648776030169</v>
+        <v>0.003152075073176832</v>
       </c>
     </row>
     <row r="34">
